--- a/E-commerce_project.xlsx
+++ b/E-commerce_project.xlsx
@@ -348,9 +348,6 @@
     <t>TC09</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto_suggestion is not showing products which are available </t>
-  </si>
-  <si>
     <t>Products were displayed according to the price range</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>Products were displayed based on the applied filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products are not displayed related to auto-suggest which are available. </t>
   </si>
 </sst>
 </file>
@@ -681,6 +681,190 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -705,220 +889,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1347,6 +1317,34 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1354,100 +1352,34 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1579,6 +1511,74 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1590,58 +1590,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="37" dataDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Test Scenario TID" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name=" Test Scenario Desciption" dataDxfId="44" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="No. of Test cases" dataDxfId="43"/>
-    <tableColumn id="4" name="Priority" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Test Scenario TID" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name=" Test Scenario Desciption" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="No. of Test cases" dataDxfId="38"/>
+    <tableColumn id="4" name="Priority" dataDxfId="37" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:M9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33" headerRowCellStyle="Normal 2" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:M9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32" headerRowCellStyle="Normal 2" dataCellStyle="Normal 3">
   <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Scenario TID" dataDxfId="32" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name=" Test Scenario" dataDxfId="31" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Test Case Id" dataDxfId="30" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="29" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Test Case Title" dataDxfId="28" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Pre Condition" dataDxfId="27" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Steps to Execute" dataDxfId="26" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Expected Result" dataDxfId="25" dataCellStyle="Normal 3"/>
-    <tableColumn id="9" name="Actual Result" dataDxfId="24" dataCellStyle="Normal 3"/>
-    <tableColumn id="10" name="Status" dataDxfId="23" dataCellStyle="Normal 3"/>
-    <tableColumn id="11" name="Executed QA Name " dataDxfId="22" dataCellStyle="Normal 3"/>
-    <tableColumn id="12" name="Misc (Comments)" dataDxfId="21" dataCellStyle="Normal 3"/>
-    <tableColumn id="13" name="Priority" dataDxfId="20" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Scenario TID" dataDxfId="31" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name=" Test Scenario" dataDxfId="30" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Test Case Id" dataDxfId="29" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="28" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Test Case Title" dataDxfId="27" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Pre Condition" dataDxfId="26" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Steps to Execute" dataDxfId="25" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Expected Result" dataDxfId="24" dataCellStyle="Normal 3"/>
+    <tableColumn id="9" name="Actual Result" dataDxfId="23" dataCellStyle="Normal 3"/>
+    <tableColumn id="10" name="Status" dataDxfId="22" dataCellStyle="Normal 3"/>
+    <tableColumn id="11" name="Executed QA Name " dataDxfId="21" dataCellStyle="Normal 3"/>
+    <tableColumn id="12" name="Misc (Comments)" dataDxfId="20" dataCellStyle="Normal 3"/>
+    <tableColumn id="13" name="Priority" dataDxfId="19" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:N10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16" headerRowCellStyle="Normal 3" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:N10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="Normal 3" dataCellStyle="Normal">
   <autoFilter ref="A1:N10"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Scenario TID" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="2" name=" Test Scenario" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Test Case Id" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Test Case Title" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Pre Condition" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Steps to Execute" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Expected Result" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Actual Result" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Status" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="Executed QA Name " dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="12" name="Misc (Comments)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="13" name="Priority" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="14" name="Is Automated" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Scenario TID" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="2" name=" Test Scenario" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Test Case Id" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Test Case Title" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Pre Condition" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Steps to Execute" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Expected Result" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Actual Result" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Status" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="Executed QA Name " dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="Misc (Comments)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Priority" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="Is Automated" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2144,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2485,7 +2485,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2498,7 +2498,7 @@
     <col min="6" max="6" width="24.6328125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="122.1796875" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="122" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.26953125" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7265625" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.1796875" style="17" bestFit="1" customWidth="1"/>
@@ -2574,7 +2574,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>40</v>
@@ -2603,7 +2603,7 @@
         <v>79</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>40</v>
@@ -2632,7 +2632,7 @@
         <v>83</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>40</v>
@@ -2661,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="34" t="s">
         <v>108</v>
@@ -2690,7 +2690,7 @@
         <v>91</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>40</v>
@@ -2719,7 +2719,7 @@
         <v>95</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="35" t="s">
         <v>40</v>
@@ -2748,7 +2748,7 @@
         <v>99</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="35" t="s">
         <v>40</v>
@@ -2777,7 +2777,7 @@
         <v>103</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="35" t="s">
         <v>40</v>
@@ -2806,7 +2806,7 @@
         <v>107</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>108</v>

--- a/E-commerce_project.xlsx
+++ b/E-commerce_project.xlsx
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
